--- a/build_instructions/spin_coater/spincoater_partlist.xlsx
+++ b/build_instructions/spin_coater/spincoater_partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniz/Documents/GitHub/PASCAL/build_instructions/spin_coater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D621342-1BBA-2B4B-B760-781D5604390E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0275D036-36CB-3F43-A21F-E4C2975F3519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{4EF2B56F-E2C6-5544-940A-D1B2A4E3C872}"/>
   </bookViews>
@@ -35,8 +35,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://odriverobotics.com/shop/odrive-v36</t>
+  </si>
+  <si>
+    <t>ODRIVE V3.6</t>
+  </si>
+  <si>
+    <t>8192 CPR ENCODER</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/iFlight-1800KV-Brushless-Quadcopter-unibell/dp/B07XYYRWGP</t>
+  </si>
+  <si>
+    <t>https://odriverobotics.com/shop/cui-amt-102</t>
+  </si>
+  <si>
+    <t>1800kV Brushless motor</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Cosel/PJMA600F-24?qs=DRkmTr78QARizXWjL2NKqg%3D%3D&amp;countryCode=US&amp;currencyCode=USD</t>
+  </si>
+  <si>
+    <t>Modular PS 600W 24V 25A</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -66,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,14 +444,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAABCB9-E76D-6B43-AC7D-1796BAA8B2B5}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>190</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <f>SUM(C4:C7)</f>
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>